--- a/data/stat probs/goga bitadze stat probs - condition.xlsx
+++ b/data/stat probs/goga bitadze stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -583,28 +583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1161,22 +1161,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1515,28 +1515,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -2029,28 +2029,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -2480,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2543,22 +2543,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2613,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -2651,10 +2651,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2671,16 +2671,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2703,16 +2703,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2799,16 +2799,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2831,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2980,6 +2980,70 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2994,7 +3058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3121,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3095,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3127,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3153,10 +3217,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -3165,10 +3229,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3185,16 +3249,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3217,16 +3281,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3249,16 +3313,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3281,16 +3345,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3313,16 +3377,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3345,16 +3409,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3377,16 +3441,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3409,16 +3473,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3441,16 +3505,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3473,16 +3537,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3494,6 +3558,70 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3571,28 +3699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3603,28 +3731,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -3635,22 +3763,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3667,22 +3795,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3699,22 +3827,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3731,16 +3859,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3763,16 +3891,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3795,16 +3923,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3827,16 +3955,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3859,16 +3987,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3891,16 +4019,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3923,16 +4051,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3955,16 +4083,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3987,16 +4115,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -4019,16 +4147,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -4057,10 +4185,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4149,28 +4277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4181,28 +4309,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -4213,22 +4341,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4245,22 +4373,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4277,22 +4405,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4309,16 +4437,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4341,16 +4469,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4373,16 +4501,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4405,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4437,16 +4565,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4469,16 +4597,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4501,16 +4629,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4533,16 +4661,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -4565,16 +4693,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -4597,16 +4725,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -4635,10 +4763,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4727,28 +4855,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -4759,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -4771,16 +4899,16 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -4791,22 +4919,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4823,16 +4951,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>20</v>
@@ -4855,22 +4983,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4887,16 +5015,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
         <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4919,16 +5047,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4951,16 +5079,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4983,16 +5111,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5015,16 +5143,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5047,16 +5175,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5079,16 +5207,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5111,16 +5239,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5143,16 +5271,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5175,16 +5303,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5213,10 +5341,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5305,28 +5433,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -5337,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5349,16 +5477,16 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -5369,22 +5497,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5401,16 +5529,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>20</v>
@@ -5433,22 +5561,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5465,16 +5593,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
         <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5497,16 +5625,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5529,16 +5657,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5561,16 +5689,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5593,16 +5721,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5625,16 +5753,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5657,16 +5785,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5689,16 +5817,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5721,16 +5849,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5753,16 +5881,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5791,10 +5919,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5820,7 +5948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,22 +6011,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5915,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -5933,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -5947,22 +6075,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5979,22 +6107,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6011,22 +6139,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6043,16 +6171,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6075,16 +6203,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6107,16 +6235,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6139,16 +6267,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6171,16 +6299,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6203,16 +6331,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6224,166 +6352,6 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F13" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40</v>
-      </c>
-      <c r="F15" t="n">
-        <v>60</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6461,28 +6429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -6971,584 +6939,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40</v>
-      </c>
-      <c r="F7" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40</v>
-      </c>
-      <c r="F12" t="n">
-        <v>60</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F13" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40</v>
-      </c>
-      <c r="F15" t="n">
-        <v>60</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7617,22 +7007,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7966,425 +7356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8453,22 +7425,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8738,7 +7710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8807,22 +7779,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9084,6 +8056,1034 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9739,28 +9739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -10575,28 +10575,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -10833,22 +10833,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11027,28 +11027,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -11605,22 +11605,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11799,28 +11799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12313,28 +12313,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12827,28 +12827,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13341,28 +13341,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13855,28 +13855,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14113,28 +14113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14371,22 +14371,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14629,22 +14629,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14887,22 +14887,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15113,28 +15113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -15691,22 +15691,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15917,28 +15917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -16207,28 +16207,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -16497,22 +16497,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16755,22 +16755,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17013,22 +17013,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17271,22 +17271,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17529,22 +17529,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17787,22 +17787,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18045,22 +18045,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18303,28 +18303,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -18881,22 +18881,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19139,28 +19139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19493,28 +19493,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19847,22 +19847,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20329,22 +20329,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20811,22 +20811,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21037,22 +21037,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21263,28 +21263,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21553,28 +21553,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21843,28 +21843,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22133,28 +22133,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -22711,28 +22711,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23001,22 +23001,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23195,22 +23195,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23395,10 +23395,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24165,28 +24165,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24423,28 +24423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24687,16 +24687,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25203,16 +25203,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25683,16 +25683,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26135,16 +26135,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26361,16 +26361,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26587,16 +26587,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26813,16 +26813,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27039,28 +27039,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27297,22 +27297,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27651,28 +27651,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27909,22 +27909,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28135,22 +28135,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28361,16 +28361,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28379,10 +28379,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28715,16 +28715,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28733,10 +28733,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29075,10 +29075,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29205,10 +29205,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29525,22 +29525,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29687,22 +29687,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30041,22 +30041,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30203,22 +30203,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30397,22 +30397,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30591,22 +30591,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30785,22 +30785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30979,16 +30979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31333,16 +31333,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
